--- a/Analysis Engine (Single).xlsx
+++ b/Analysis Engine (Single).xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="19440" tabRatio="500"/>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="13860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reader Data" sheetId="1" r:id="rId1"/>
     <sheet name="Data Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>StanEx Dilp2FLAG(HA) ELISA Analysis Engine</t>
   </si>
@@ -215,13 +214,33 @@
     <t>Line</t>
   </si>
   <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>PBS Cubic Fit</t>
-  </si>
-  <si>
-    <t>PBS+T Cubic Fit</t>
+    <r>
+      <t>Coefficients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Fit</t>
+    </r>
+  </si>
+  <si>
+    <t>FLAG(GS)HA STD in PBS</t>
+  </si>
+  <si>
+    <t>FLAG(GS)HA STD in PBS + 1% T</t>
+  </si>
+  <si>
+    <t>Graph Data</t>
+  </si>
+  <si>
+    <t>Circ. Value</t>
+  </si>
+  <si>
+    <t>Total Value</t>
   </si>
 </sst>
 </file>
@@ -303,10 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -474,8 +492,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,9 +585,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,11 +601,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -608,6 +630,8 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -629,6 +653,8 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,6 +685,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>FLAG(GS)HA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Standards in PBS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -668,26 +723,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -723,6 +758,16 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Data Summary'!$D$6:$D$13</c:f>
@@ -799,11 +844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115920472"/>
-        <c:axId val="2127975224"/>
+        <c:axId val="2132545352"/>
+        <c:axId val="2132551192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115920472"/>
+        <c:axId val="2132545352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,6 +868,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Absorbance at 450nm (OD)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -860,12 +924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127975224"/>
+        <c:crossAx val="2132551192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127975224"/>
+        <c:axId val="2132551192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +949,26 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -922,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115920472"/>
+        <c:crossAx val="2132545352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -986,6 +1069,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>FLAG(GS)HA Standards</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> in PBS + 1% Triton</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -995,26 +1108,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1050,6 +1143,16 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Data Summary'!$E$6:$E$13</c:f>
@@ -1126,11 +1229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127860008"/>
-        <c:axId val="2127863528"/>
+        <c:axId val="2132621304"/>
+        <c:axId val="2132627144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127860008"/>
+        <c:axId val="2132621304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,6 +1253,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Absorbance at 450nm (OD)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1187,12 +1309,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127863528"/>
+        <c:crossAx val="2132627144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127863528"/>
+        <c:axId val="2132627144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1334,26 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1249,7 +1390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127860008"/>
+        <c:crossAx val="2132621304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1293,6 +1434,281 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Circulating Mass</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Summary'!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Circ. Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Summary'!$W$6:$W$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>TRiP Control A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dilp2 Control B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mCherry Control C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Genotype 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Genotype 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Genotype 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Genotype 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genotype 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TRiP Control B</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Genotype 8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Genotype 9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Genotype 10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Genotype 11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Genotype 12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Genotype 13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Genotype 14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Summary'!$X$6:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2143359432"/>
+        <c:axId val="-2146594856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2143359432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Line</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Name</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146594856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2146594856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mass (picograms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143359432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2472,6 +2888,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2799,11 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:N13"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2813,100 +3256,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
     </row>
     <row r="3" spans="1:29" ht="23">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
     </row>
     <row r="4" spans="1:29">
       <c r="L4" s="13" t="s">
@@ -3699,36 +4142,36 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="23">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="Q15" s="21" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="Q15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
     </row>
     <row r="16" spans="1:29">
       <c r="L16" s="13"/>
@@ -3770,7 +4213,7 @@
       <c r="K17" s="2">
         <v>9</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <v>10</v>
       </c>
       <c r="M17" s="2">
@@ -3810,7 +4253,7 @@
       <c r="Z17" s="2">
         <v>9</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AA17" s="17">
         <v>10</v>
       </c>
       <c r="AB17" s="2">
@@ -4521,7 +4964,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -4529,18 +4971,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
@@ -4555,146 +4994,163 @@
     <col min="15" max="15" width="13.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
     <col min="17" max="17" width="14.1640625" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
     <col min="20" max="20" width="14.5" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+    <row r="1" spans="1:25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+    <row r="2" spans="1:25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
     </row>
-    <row r="4" spans="1:21" ht="20">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:25" ht="20">
+      <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="G4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="W4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:25">
+      <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="23" t="s">
         <v>62</v>
       </c>
+      <c r="W5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:25">
       <c r="A6" s="15">
         <v>0</v>
       </c>
@@ -4733,6 +5189,14 @@
         <f>B$25*I6^3+C$25*I6^2+D$25*I6+E$25</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="L6" t="e">
+        <f>(J6*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="e">
+        <f>(K6*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O6" t="str">
         <f>'Reader Data'!A18</f>
         <v>TRiP Control B</v>
@@ -4745,8 +5209,36 @@
         <f>AVERAGEIF('Reader Data'!R18:Y18, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R6" t="e">
+        <f>B$24*P6^3+C$24*P6^2+D$24*P6+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" t="e">
+        <f>C$25*Q6^3+D$25*Q6^2+E$25*Q6+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" t="e">
+        <f>(R6*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" t="e">
+        <f>(S6*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" t="str">
+        <f>G6</f>
+        <v>TRiP Control A</v>
+      </c>
+      <c r="X6" t="e">
+        <f>L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y6" t="e">
+        <f>M6</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:25">
       <c r="A7" s="15">
         <v>0.1</v>
       </c>
@@ -4785,6 +5277,14 @@
         <f t="shared" ref="K7:K13" si="2">B$25*I7^3+C$25*I7^2+D$25*I7+E$25</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="L7" t="e">
+        <f t="shared" ref="L7:L13" si="3">(J7*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" t="e">
+        <f t="shared" ref="M7:M12" si="4">(K7*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O7" t="str">
         <f>'Reader Data'!A19</f>
         <v>Genotype 8</v>
@@ -4797,8 +5297,36 @@
         <f>AVERAGEIF('Reader Data'!R19:Y19, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R7" t="e">
+        <f>B$24*P7^3+C$24*P7^2+D$24*P7+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" t="e">
+        <f>C$25*Q7^3+D$25*Q7^2+E$25*Q7+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" t="e">
+        <f t="shared" ref="T7:T13" si="5">(R7*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" t="e">
+        <f t="shared" ref="U7:U13" si="6">(S7*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" ref="W7:W13" si="7">G7</f>
+        <v>dilp2 Control B</v>
+      </c>
+      <c r="X7" t="e">
+        <f t="shared" ref="X7:X13" si="8">L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y7" t="e">
+        <f t="shared" ref="Y7:Y13" si="9">M7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:25">
       <c r="A8" s="15">
         <v>0.2</v>
       </c>
@@ -4837,6 +5365,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O8" t="str">
         <f>'Reader Data'!A20</f>
         <v>Genotype 9</v>
@@ -4849,8 +5385,36 @@
         <f>AVERAGEIF('Reader Data'!R20:Y20, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R8" t="e">
+        <f>B$24*P8^3+C$24*P8^2+D$24*P8+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" t="e">
+        <f>C$25*Q8^3+D$25*Q8^2+E$25*Q8+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="7"/>
+        <v>mCherry Control C</v>
+      </c>
+      <c r="X8" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:25">
       <c r="A9" s="15">
         <v>0.5</v>
       </c>
@@ -4889,6 +5453,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O9" t="str">
         <f>'Reader Data'!A21</f>
         <v>Genotype 10</v>
@@ -4901,8 +5473,36 @@
         <f>AVERAGEIF('Reader Data'!R21:Y21, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R9" t="e">
+        <f>B$24*P9^3+C$24*P9^2+D$24*P9+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f>C$25*Q9^3+D$25*Q9^2+E$25*Q9+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="7"/>
+        <v>Genotype 3</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y9" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:25">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -4941,6 +5541,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O10" t="str">
         <f>'Reader Data'!A22</f>
         <v>Genotype 11</v>
@@ -4953,8 +5561,36 @@
         <f>AVERAGEIF('Reader Data'!R22:Y22, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R10" t="e">
+        <f>B$24*P10^3+C$24*P10^2+D$24*P10+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f>C$25*Q10^3+D$25*Q10^2+E$25*Q10+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="7"/>
+        <v>Genotype 4</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -4993,6 +5629,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O11" t="str">
         <f>'Reader Data'!A23</f>
         <v>Genotype 12</v>
@@ -5005,8 +5649,36 @@
         <f>AVERAGEIF('Reader Data'!R23:Y23, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R11" t="e">
+        <f>B$24*P11^3+C$24*P11^2+D$24*P11+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f>C$25*Q11^3+D$25*Q11^2+E$25*Q11+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="7"/>
+        <v>Genotype 5</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:25">
       <c r="A12" s="15">
         <v>5</v>
       </c>
@@ -5045,6 +5717,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O12" t="str">
         <f>'Reader Data'!A24</f>
         <v>Genotype 13</v>
@@ -5057,8 +5737,36 @@
         <f>AVERAGEIF('Reader Data'!R24:Y24, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R12" t="e">
+        <f>B$24*P12^3+C$24*P12^2+D$24*P12+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f>C$25*Q12^3+D$25*Q12^2+E$25*Q12+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="7"/>
+        <v>Genotype 6</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:25">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -5097,6 +5805,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" t="e">
+        <f>(K13*(7828.8*50)/1000000)/10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O13" t="str">
         <f>'Reader Data'!A25</f>
         <v>Genotype 14</v>
@@ -5109,75 +5825,201 @@
         <f>AVERAGEIF('Reader Data'!R25:Y25, "&gt;0.05")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R13" t="e">
+        <f>B$24*P13^3+C$24*P13^2+D$24*P13+E$24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f>C$25*Q13^3+D$25*Q13^2+E$25*Q13+F$25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="7"/>
+        <v>Genotype 7</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" ht="20">
-      <c r="A15" s="23" t="s">
+    <row r="14" spans="1:25">
+      <c r="W14" t="str">
+        <f>O6</f>
+        <v>TRiP Control B</v>
+      </c>
+      <c r="X14" t="e">
+        <f>T6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" t="e">
+        <f>U6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="20">
+      <c r="A15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="W15" t="str">
+        <f t="shared" ref="W15:W25" si="10">O7</f>
+        <v>Genotype 8</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" ref="X15:X21" si="11">T7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" t="e">
+        <f t="shared" ref="Y15:Y20" si="12">U7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:25">
+      <c r="A16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="14" t="s">
         <v>55</v>
       </c>
+      <c r="W16" t="str">
+        <f t="shared" si="10"/>
+        <v>Genotype 9</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="17" spans="1:25">
+      <c r="A17" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B17">
         <v>0.05</v>
       </c>
+      <c r="W17" t="str">
+        <f t="shared" si="10"/>
+        <v>Genotype 10</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y17" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="18" spans="1:25">
+      <c r="A18" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B18">
         <v>2.4119999999999999</v>
       </c>
+      <c r="W18" t="str">
+        <f t="shared" si="10"/>
+        <v>Genotype 11</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y18" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="19" spans="1:25">
+      <c r="A19" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B19">
         <v>450</v>
       </c>
+      <c r="W19" t="str">
+        <f t="shared" si="10"/>
+        <v>Genotype 12</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:25">
+      <c r="A20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="W20" t="str">
+        <f t="shared" si="10"/>
+        <v>Genotype 13</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y20" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="21" spans="1:25">
+      <c r="A21" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
+      <c r="W21" t="str">
+        <f t="shared" si="10"/>
+        <v>Genotype 14</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y21" t="e">
+        <f>U13</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" ht="20">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:25" ht="20">
+      <c r="A23" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="24" spans="1:25">
+      <c r="A24" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B24">
@@ -5194,8 +6036,8 @@
         <v>19.485903814262024</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="25" spans="1:25">
+      <c r="A25" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B25">
@@ -5213,7 +6055,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A1:U2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A15:E15"/>
@@ -5226,7 +6069,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
